--- a/timeline/Data Kuesioner.xlsx
+++ b/timeline/Data Kuesioner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STMIK PRIMAKARA\SEMESTER 8\Tugas Akhir\timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5166C495-E969-42D1-9EAC-2545041CA8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9007A7-48B3-49D2-BD51-AF8CED118E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA MENTAH" sheetId="1" r:id="rId1"/>
@@ -513,15 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -533,6 +524,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,14 +850,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -900,770 +900,770 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>85157299530</v>
       </c>
-      <c r="D2" s="14">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14">
-        <v>5</v>
-      </c>
-      <c r="H2" s="14">
-        <v>4</v>
-      </c>
-      <c r="I2" s="14">
-        <v>3</v>
-      </c>
-      <c r="J2" s="14">
-        <v>5</v>
-      </c>
-      <c r="K2" s="14">
-        <v>5</v>
-      </c>
-      <c r="L2" s="14">
+      <c r="D2" s="11">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11">
+        <v>5</v>
+      </c>
+      <c r="K2" s="11">
+        <v>5</v>
+      </c>
+      <c r="L2" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>8311871653</v>
       </c>
-      <c r="D3" s="14">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14">
-        <v>4</v>
-      </c>
-      <c r="F3" s="14">
-        <v>3</v>
-      </c>
-      <c r="G3" s="14">
-        <v>3</v>
-      </c>
-      <c r="H3" s="14">
-        <v>3</v>
-      </c>
-      <c r="I3" s="14">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14">
-        <v>4</v>
-      </c>
-      <c r="K3" s="14">
-        <v>4</v>
-      </c>
-      <c r="L3" s="14">
+      <c r="D3" s="11">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>4</v>
+      </c>
+      <c r="K3" s="11">
+        <v>4</v>
+      </c>
+      <c r="L3" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>81337247388</v>
       </c>
-      <c r="D4" s="14">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14">
-        <v>5</v>
-      </c>
-      <c r="I4" s="14">
-        <v>5</v>
-      </c>
-      <c r="J4" s="14">
-        <v>5</v>
-      </c>
-      <c r="K4" s="14">
-        <v>5</v>
-      </c>
-      <c r="L4" s="14">
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>5</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5</v>
+      </c>
+      <c r="L4" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>85738938038</v>
       </c>
-      <c r="D5" s="14">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>5</v>
-      </c>
-      <c r="F5" s="14">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14">
-        <v>5</v>
-      </c>
-      <c r="H5" s="14">
-        <v>5</v>
-      </c>
-      <c r="I5" s="14">
-        <v>4</v>
-      </c>
-      <c r="J5" s="14">
-        <v>4</v>
-      </c>
-      <c r="K5" s="14">
-        <v>5</v>
-      </c>
-      <c r="L5" s="14">
+      <c r="D5" s="11">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4</v>
+      </c>
+      <c r="J5" s="11">
+        <v>4</v>
+      </c>
+      <c r="K5" s="11">
+        <v>5</v>
+      </c>
+      <c r="L5" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>89528943662</v>
       </c>
-      <c r="D6" s="14">
-        <v>5</v>
-      </c>
-      <c r="E6" s="14">
-        <v>4</v>
-      </c>
-      <c r="F6" s="14">
-        <v>5</v>
-      </c>
-      <c r="G6" s="14">
-        <v>5</v>
-      </c>
-      <c r="H6" s="14">
-        <v>3</v>
-      </c>
-      <c r="I6" s="14">
-        <v>4</v>
-      </c>
-      <c r="J6" s="14">
-        <v>5</v>
-      </c>
-      <c r="K6" s="14">
-        <v>4</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11">
+        <v>4</v>
+      </c>
+      <c r="L6" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>8155703066</v>
       </c>
-      <c r="D7" s="14">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14">
-        <v>5</v>
-      </c>
-      <c r="H7" s="14">
-        <v>5</v>
-      </c>
-      <c r="I7" s="14">
-        <v>5</v>
-      </c>
-      <c r="J7" s="14">
-        <v>4</v>
-      </c>
-      <c r="K7" s="14">
-        <v>5</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>5</v>
+      </c>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11">
+        <v>5</v>
+      </c>
+      <c r="L7" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>8970344509</v>
       </c>
-      <c r="D8" s="14">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14">
-        <v>3</v>
-      </c>
-      <c r="F8" s="14">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14">
-        <v>5</v>
-      </c>
-      <c r="H8" s="14">
-        <v>4</v>
-      </c>
-      <c r="I8" s="14">
-        <v>3</v>
-      </c>
-      <c r="J8" s="14">
-        <v>5</v>
-      </c>
-      <c r="K8" s="14">
-        <v>5</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>5</v>
+      </c>
+      <c r="L8" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>87762879038</v>
       </c>
-      <c r="D9" s="14">
-        <v>5</v>
-      </c>
-      <c r="E9" s="14">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14">
-        <v>3</v>
-      </c>
-      <c r="G9" s="14">
-        <v>5</v>
-      </c>
-      <c r="H9" s="14">
-        <v>3</v>
-      </c>
-      <c r="I9" s="14">
-        <v>3</v>
-      </c>
-      <c r="J9" s="14">
-        <v>4</v>
-      </c>
-      <c r="K9" s="14">
-        <v>5</v>
-      </c>
-      <c r="L9" s="14">
+      <c r="D9" s="11">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11">
+        <v>3</v>
+      </c>
+      <c r="J9" s="11">
+        <v>4</v>
+      </c>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>85100817271</v>
       </c>
-      <c r="D10" s="14">
-        <v>5</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4</v>
-      </c>
-      <c r="F10" s="14">
-        <v>3</v>
-      </c>
-      <c r="G10" s="14">
-        <v>4</v>
-      </c>
-      <c r="H10" s="14">
-        <v>5</v>
-      </c>
-      <c r="I10" s="14">
-        <v>5</v>
-      </c>
-      <c r="J10" s="14">
-        <v>5</v>
-      </c>
-      <c r="K10" s="14">
-        <v>5</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5</v>
+      </c>
+      <c r="K10" s="11">
+        <v>5</v>
+      </c>
+      <c r="L10" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>81775271722</v>
       </c>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14">
-        <v>5</v>
-      </c>
-      <c r="G11" s="14">
-        <v>4</v>
-      </c>
-      <c r="H11" s="14">
-        <v>5</v>
-      </c>
-      <c r="I11" s="14">
-        <v>3</v>
-      </c>
-      <c r="J11" s="14">
-        <v>5</v>
-      </c>
-      <c r="K11" s="14">
-        <v>5</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3</v>
+      </c>
+      <c r="J11" s="11">
+        <v>5</v>
+      </c>
+      <c r="K11" s="11">
+        <v>5</v>
+      </c>
+      <c r="L11" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>83119027048</v>
       </c>
-      <c r="D12" s="14">
-        <v>5</v>
-      </c>
-      <c r="E12" s="14">
-        <v>5</v>
-      </c>
-      <c r="F12" s="14">
-        <v>4</v>
-      </c>
-      <c r="G12" s="14">
-        <v>4</v>
-      </c>
-      <c r="H12" s="14">
-        <v>5</v>
-      </c>
-      <c r="I12" s="14">
-        <v>5</v>
-      </c>
-      <c r="J12" s="14">
-        <v>3</v>
-      </c>
-      <c r="K12" s="14">
-        <v>5</v>
-      </c>
-      <c r="L12" s="14">
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
+      <c r="G12" s="11">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>5</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
+      <c r="K12" s="11">
+        <v>5</v>
+      </c>
+      <c r="L12" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>881037814300</v>
       </c>
-      <c r="D13" s="14">
-        <v>5</v>
-      </c>
-      <c r="E13" s="14">
-        <v>3</v>
-      </c>
-      <c r="F13" s="14">
-        <v>4</v>
-      </c>
-      <c r="G13" s="14">
-        <v>3</v>
-      </c>
-      <c r="H13" s="14">
-        <v>5</v>
-      </c>
-      <c r="I13" s="14">
-        <v>3</v>
-      </c>
-      <c r="J13" s="14">
-        <v>5</v>
-      </c>
-      <c r="K13" s="14">
-        <v>5</v>
-      </c>
-      <c r="L13" s="14">
+      <c r="D13" s="11">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5</v>
+      </c>
+      <c r="K13" s="11">
+        <v>5</v>
+      </c>
+      <c r="L13" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>81268476588</v>
       </c>
-      <c r="D14" s="14">
-        <v>5</v>
-      </c>
-      <c r="E14" s="14">
-        <v>5</v>
-      </c>
-      <c r="F14" s="14">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="14">
-        <v>5</v>
-      </c>
-      <c r="I14" s="14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="14">
-        <v>3</v>
-      </c>
-      <c r="K14" s="14">
-        <v>4</v>
-      </c>
-      <c r="L14" s="14">
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11">
+        <v>5</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3</v>
+      </c>
+      <c r="K14" s="11">
+        <v>4</v>
+      </c>
+      <c r="L14" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>81239134508</v>
       </c>
-      <c r="D15" s="14">
-        <v>5</v>
-      </c>
-      <c r="E15" s="14">
-        <v>4</v>
-      </c>
-      <c r="F15" s="14">
-        <v>3</v>
-      </c>
-      <c r="G15" s="14">
-        <v>3</v>
-      </c>
-      <c r="H15" s="14">
-        <v>5</v>
-      </c>
-      <c r="I15" s="14">
-        <v>5</v>
-      </c>
-      <c r="J15" s="14">
-        <v>4</v>
-      </c>
-      <c r="K15" s="14">
-        <v>5</v>
-      </c>
-      <c r="L15" s="14">
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4</v>
+      </c>
+      <c r="K15" s="11">
+        <v>5</v>
+      </c>
+      <c r="L15" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>82145051919</v>
       </c>
-      <c r="D16" s="14">
-        <v>3</v>
-      </c>
-      <c r="E16" s="14">
-        <v>4</v>
-      </c>
-      <c r="F16" s="14">
-        <v>4</v>
-      </c>
-      <c r="G16" s="14">
-        <v>4</v>
-      </c>
-      <c r="H16" s="14">
-        <v>4</v>
-      </c>
-      <c r="I16" s="14">
-        <v>4</v>
-      </c>
-      <c r="J16" s="14">
-        <v>4</v>
-      </c>
-      <c r="K16" s="14">
-        <v>4</v>
-      </c>
-      <c r="L16" s="14">
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4</v>
+      </c>
+      <c r="L16" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="10">
         <v>82146402242</v>
       </c>
-      <c r="D17" s="14">
-        <v>4</v>
-      </c>
-      <c r="E17" s="14">
-        <v>4</v>
-      </c>
-      <c r="F17" s="14">
-        <v>5</v>
-      </c>
-      <c r="G17" s="14">
-        <v>3</v>
-      </c>
-      <c r="H17" s="14">
-        <v>4</v>
-      </c>
-      <c r="I17" s="14">
-        <v>4</v>
-      </c>
-      <c r="J17" s="14">
-        <v>4</v>
-      </c>
-      <c r="K17" s="14">
-        <v>4</v>
-      </c>
-      <c r="L17" s="14">
+      <c r="D17" s="11">
+        <v>4</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>4</v>
+      </c>
+      <c r="K17" s="11">
+        <v>4</v>
+      </c>
+      <c r="L17" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>81238457303</v>
       </c>
-      <c r="D18" s="14">
-        <v>5</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4</v>
-      </c>
-      <c r="F18" s="14">
-        <v>5</v>
-      </c>
-      <c r="G18" s="14">
-        <v>4</v>
-      </c>
-      <c r="H18" s="14">
-        <v>3</v>
-      </c>
-      <c r="I18" s="14">
-        <v>5</v>
-      </c>
-      <c r="J18" s="14">
-        <v>5</v>
-      </c>
-      <c r="K18" s="14">
-        <v>4</v>
-      </c>
-      <c r="L18" s="14">
+      <c r="D18" s="11">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>4</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11">
+        <v>5</v>
+      </c>
+      <c r="J18" s="11">
+        <v>5</v>
+      </c>
+      <c r="K18" s="11">
+        <v>4</v>
+      </c>
+      <c r="L18" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>82235226641</v>
       </c>
-      <c r="D19" s="14">
-        <v>5</v>
-      </c>
-      <c r="E19" s="14">
-        <v>5</v>
-      </c>
-      <c r="F19" s="14">
-        <v>4</v>
-      </c>
-      <c r="G19" s="14">
-        <v>4</v>
-      </c>
-      <c r="H19" s="14">
-        <v>4</v>
-      </c>
-      <c r="I19" s="14">
-        <v>4</v>
-      </c>
-      <c r="J19" s="14">
-        <v>4</v>
-      </c>
-      <c r="K19" s="14">
-        <v>4</v>
-      </c>
-      <c r="L19" s="14">
+      <c r="D19" s="11">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11">
+        <v>5</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4</v>
+      </c>
+      <c r="K19" s="11">
+        <v>4</v>
+      </c>
+      <c r="L19" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>81529927565</v>
       </c>
-      <c r="D20" s="14">
-        <v>5</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4</v>
-      </c>
-      <c r="F20" s="14">
-        <v>4</v>
-      </c>
-      <c r="G20" s="14">
-        <v>5</v>
-      </c>
-      <c r="H20" s="14">
-        <v>4</v>
-      </c>
-      <c r="I20" s="14">
-        <v>5</v>
-      </c>
-      <c r="J20" s="14">
-        <v>3</v>
-      </c>
-      <c r="K20" s="14">
-        <v>5</v>
-      </c>
-      <c r="L20" s="14">
+      <c r="D20" s="11">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4</v>
+      </c>
+      <c r="G20" s="11">
+        <v>5</v>
+      </c>
+      <c r="H20" s="11">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11">
+        <v>5</v>
+      </c>
+      <c r="J20" s="11">
+        <v>3</v>
+      </c>
+      <c r="K20" s="11">
+        <v>5</v>
+      </c>
+      <c r="L20" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="10">
         <v>85792898766</v>
       </c>
-      <c r="D21" s="14">
-        <v>3</v>
-      </c>
-      <c r="E21" s="14">
-        <v>4</v>
-      </c>
-      <c r="F21" s="14">
-        <v>3</v>
-      </c>
-      <c r="G21" s="14">
-        <v>4</v>
-      </c>
-      <c r="H21" s="14">
-        <v>3</v>
-      </c>
-      <c r="I21" s="14">
-        <v>5</v>
-      </c>
-      <c r="J21" s="14">
-        <v>5</v>
-      </c>
-      <c r="K21" s="14">
-        <v>5</v>
-      </c>
-      <c r="L21" s="14">
-        <v>4</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11">
+        <v>3</v>
+      </c>
+      <c r="G21" s="11">
+        <v>4</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3</v>
+      </c>
+      <c r="I21" s="11">
+        <v>5</v>
+      </c>
+      <c r="J21" s="11">
+        <v>5</v>
+      </c>
+      <c r="K21" s="11">
+        <v>5</v>
+      </c>
+      <c r="L21" s="11">
+        <v>4</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1687,22 +1687,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
@@ -2001,11 +2001,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2022,7 +2022,7 @@
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="9">
@@ -2034,7 +2034,7 @@
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="9">
@@ -2046,7 +2046,7 @@
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="9">
@@ -2058,7 +2058,7 @@
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="9">
@@ -2070,7 +2070,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="9">
@@ -2079,21 +2079,21 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="6">
         <f>SUM(C3:C7)</f>
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2110,7 +2110,7 @@
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="9">
@@ -2122,7 +2122,7 @@
       <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="9">
@@ -2134,7 +2134,7 @@
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="9">
@@ -2146,7 +2146,7 @@
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="9">
@@ -2158,7 +2158,7 @@
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="9">
@@ -2167,21 +2167,21 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="6">
         <f>SUM(C12:C16)</f>
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -2195,10 +2195,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="9">
@@ -2207,10 +2207,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="9">
@@ -2219,10 +2219,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="9">
@@ -2231,10 +2231,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="9">
@@ -2243,10 +2243,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="9">
@@ -2255,10 +2255,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="6">
         <f>SUM(C21:C25)</f>
         <v>84</v>
@@ -2270,11 +2270,11 @@
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -2288,10 +2288,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="9">
@@ -2300,10 +2300,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="9">
@@ -2312,10 +2312,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="9">
@@ -2324,10 +2324,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="9">
@@ -2336,10 +2336,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="9">
@@ -2348,10 +2348,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="6">
         <f>SUM(C30:C34)</f>
         <v>83</v>
@@ -2363,11 +2363,11 @@
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -2381,10 +2381,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="9">
@@ -2393,10 +2393,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="9">
@@ -2405,10 +2405,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="9">
@@ -2417,10 +2417,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="9">
@@ -2429,10 +2429,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="9">
@@ -2441,10 +2441,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="6">
         <f>SUM(C39:C43)</f>
         <v>84</v>
@@ -2456,11 +2456,11 @@
       <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -2474,10 +2474,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="9">
@@ -2486,10 +2486,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="9">
@@ -2498,10 +2498,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C50" s="9">
@@ -2510,10 +2510,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="9">
@@ -2522,10 +2522,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="9">
@@ -2534,10 +2534,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="6">
         <f>SUM(C48:C52)</f>
         <v>85</v>
@@ -2549,11 +2549,11 @@
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -2567,10 +2567,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C57" s="9">
@@ -2579,10 +2579,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="9">
@@ -2591,10 +2591,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C59" s="9">
@@ -2603,10 +2603,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="9">
@@ -2615,10 +2615,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="9">
@@ -2627,10 +2627,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="12"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="6">
         <f>SUM(C57:C61)</f>
         <v>86</v>
@@ -2642,11 +2642,11 @@
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -2660,10 +2660,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C66" s="9">
@@ -2672,10 +2672,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C67" s="9">
@@ -2684,10 +2684,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="9">
@@ -2696,10 +2696,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C69" s="9">
@@ -2708,10 +2708,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C70" s="9">
@@ -2720,10 +2720,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="6">
         <f>SUM(C66:C70)</f>
         <v>93</v>
@@ -2735,11 +2735,11 @@
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -2753,10 +2753,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C75" s="9">
@@ -2765,10 +2765,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C76" s="9">
@@ -2777,10 +2777,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C77" s="9">
@@ -2789,10 +2789,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C78" s="9">
@@ -2801,10 +2801,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C79" s="9">
@@ -2813,10 +2813,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="6">
         <f>SUM(C75:C79)</f>
         <v>79</v>
@@ -2824,6 +2824,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A80:B80"/>
@@ -2840,8 +2842,6 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A62:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="168" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2852,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABCBCEB-80E4-4E2C-8312-6052F0E5C8C8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/timeline/Data Kuesioner.xlsx
+++ b/timeline/Data Kuesioner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STMIK PRIMAKARA\SEMESTER 8\Tugas Akhir\timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9007A7-48B3-49D2-BD51-AF8CED118E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397E5E9-9D70-4BE8-8A3F-D0198F68F285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA MENTAH" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>Nama</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Setuju</t>
+  </si>
+  <si>
+    <t>2 x 3</t>
   </si>
 </sst>
 </file>
@@ -850,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1989,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0F242E-2242-49EC-A1BD-BC56BCC36C71}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2050,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C5" s="9">
         <f>'TOTAL RESPONDEN'!E3*3</f>
@@ -2824,11 +2827,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A80:B80"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A8:B8"/>
@@ -2842,6 +2840,11 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="168" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
